--- a/docs/数据库设计.xlsx
+++ b/docs/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="320">
   <si>
     <t>数据库名：待定</t>
   </si>
@@ -434,7 +434,19 @@
     <t>is_vip</t>
   </si>
   <si>
-    <t>是否是VIP</t>
+    <t>是否是vip</t>
+  </si>
+  <si>
+    <t>vip_start_at</t>
+  </si>
+  <si>
+    <t>vip开通时间</t>
+  </si>
+  <si>
+    <t>vip_end_at</t>
+  </si>
+  <si>
+    <t>vip结束时间</t>
   </si>
   <si>
     <t>is_new_user</t>
@@ -443,6 +455,9 @@
     <t>是否是新用户</t>
   </si>
   <si>
+    <t>主页访问历史表（t_history）</t>
+  </si>
+  <si>
     <t>is_dangerous_user</t>
   </si>
   <si>
@@ -458,9 +473,6 @@
     <t>密码加密使用</t>
   </si>
   <si>
-    <t>主页访问历史表（t_history）</t>
-  </si>
-  <si>
     <t>visitor_id</t>
   </si>
   <si>
@@ -716,6 +728,12 @@
     <t>评论内容</t>
   </si>
   <si>
+    <t>is_only_vip</t>
+  </si>
+  <si>
+    <t>是否只允许vip用户进入</t>
+  </si>
+  <si>
     <t>start_at</t>
   </si>
   <si>
@@ -734,16 +752,16 @@
     <t>通话房间-用户关联表（t_calling_user）</t>
   </si>
   <si>
+    <t>liker_id</t>
+  </si>
+  <si>
+    <t>点赞人ID</t>
+  </si>
+  <si>
     <t>calling_room_id</t>
   </si>
   <si>
     <t>房间ID</t>
-  </si>
-  <si>
-    <t>liker_id</t>
-  </si>
-  <si>
-    <t>点赞人ID</t>
   </si>
   <si>
     <t>is_like</t>
@@ -967,8 +985,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -999,16 +1017,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,15 +1039,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,8 +1069,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,25 +1079,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1106,16 +1116,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,13 +1156,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,13 +1206,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,151 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,22 +1444,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,7 +1498,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,16 +1542,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1542,31 +1560,34 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,58 +1596,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,41 +1653,41 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,15 +1749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,7 +2101,7 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2384,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -2389,43 +2398,43 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="22"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="22"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="22"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="22"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2439,7 +2448,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="22"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>61</v>
       </c>
@@ -2451,7 +2460,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="22"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>63</v>
       </c>
@@ -2463,7 +2472,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="22"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
         <v>65</v>
       </c>
@@ -2475,19 +2484,19 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="22"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="22"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2550,10 +2559,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3199,9 +3208,11 @@
         <v>140</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3216,9 +3227,11 @@
         <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3233,27 +3246,25 @@
         <v>144</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="5"/>
+      <c r="L26" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>101</v>
@@ -3294,24 +3305,22 @@
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>82</v>
       </c>
@@ -3334,29 +3343,25 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>84</v>
@@ -3374,12 +3379,31 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="12:20">
+    <row r="30" spans="2:20">
+      <c r="B30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>84</v>
@@ -3397,7 +3421,26 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="12:20">
+    <row r="31" spans="2:20">
+      <c r="B31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="5"/>
       <c r="L31" s="5" t="s">
         <v>99</v>
       </c>
@@ -3414,10 +3457,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="2" t="s">
-        <v>151</v>
-      </c>
+    <row r="32" spans="12:20">
       <c r="L32" s="5" t="s">
         <v>104</v>
       </c>
@@ -3438,34 +3478,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>81</v>
-      </c>
+    <row r="33" spans="12:20">
       <c r="L33" s="5" t="s">
         <v>108</v>
       </c>
@@ -3486,54 +3499,46 @@
       <c r="S33" s="9"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="5"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>84</v>
@@ -3541,39 +3546,41 @@
       <c r="E36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>84</v>
@@ -3587,116 +3594,112 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="3" t="s">
+    <row r="40" spans="2:10">
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>84</v>
@@ -3704,10 +3707,10 @@
       <c r="E46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="9"/>
       <c r="J46" s="5"/>
@@ -3720,16 +3723,20 @@
         <v>163</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="5" t="s">
@@ -3739,41 +3746,47 @@
         <v>165</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
@@ -3784,13 +3797,13 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -3801,13 +3814,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -3852,10 +3865,10 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="5" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>101</v>
@@ -3869,131 +3882,123 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="5" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="9"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="9"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="3" t="s">
+    <row r="58" spans="2:10">
+      <c r="B58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="5" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>84</v>
@@ -4001,37 +4006,41 @@
       <c r="E64" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="5" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="5" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>84</v>
@@ -4049,107 +4058,103 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="5" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E67" s="6"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="9"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="3" t="s">
+    <row r="68" spans="2:10">
+      <c r="B68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="5" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>84</v>
@@ -4157,178 +4162,184 @@
       <c r="E74" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="5" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H75" s="7"/>
       <c r="I75" s="9"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="5" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="5" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E77" s="6"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="9"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="10" t="s">
+    <row r="79" spans="2:10">
+      <c r="B79" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E85" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J85" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9"/>
@@ -4336,13 +4347,13 @@
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="7"/>
@@ -4355,34 +4366,30 @@
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="5" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
@@ -4395,13 +4402,13 @@
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
@@ -4410,506 +4417,504 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="5" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H91" s="7"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="5" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H92" s="7"/>
       <c r="I92" s="9"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="5" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="9"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="10" t="s">
+    <row r="95" spans="2:10">
+      <c r="B95" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D100" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G100" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H100" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I100" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J100" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="5" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="9"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="5" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="G102" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H102" s="7"/>
       <c r="I102" s="9"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="5" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="G103" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H103" s="7"/>
       <c r="I103" s="9"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="5" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="9"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E105" s="6"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="9"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="10" t="s">
+    <row r="106" spans="2:10">
+      <c r="B106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F111" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G111" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H111" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I111" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J111" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="5" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="9"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="5" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="G113" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H113" s="7"/>
       <c r="I113" s="9"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="5" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H114" s="7"/>
       <c r="I114" s="9"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="5" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E115" s="6"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="9"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E116" s="6"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="9"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="10" t="s">
+    <row r="117" spans="2:10">
+      <c r="B117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D122" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E122" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F122" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G122" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H122" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I122" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="5" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>84</v>
@@ -4917,37 +4922,41 @@
       <c r="E123" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F123" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="9"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="5" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E124" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
+      <c r="G124" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H124" s="7"/>
       <c r="I124" s="9"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="5" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>84</v>
@@ -4965,107 +4974,103 @@
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E126" s="6"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="9"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="10" t="s">
+    <row r="127" spans="2:10">
+      <c r="B127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D132" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F132" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G132" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H132" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I130" s="11" t="s">
+      <c r="I132" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J132" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="5" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>84</v>
@@ -5073,37 +5078,41 @@
       <c r="E133" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F133" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="9"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="5" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E134" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H134" s="7"/>
       <c r="I134" s="9"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="5" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>84</v>
@@ -5121,24 +5130,62 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="9"/>
       <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,10 +5197,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5242,7 +5289,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5283,7 +5330,7 @@
         <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -5345,10 +5392,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>84</v>
@@ -5387,10 +5434,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>88</v>
@@ -5402,10 +5449,10 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>84</v>
@@ -5423,10 +5470,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>123</v>
@@ -5441,13 +5488,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>84</v>
@@ -5467,10 +5514,10 @@
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>126</v>
@@ -5486,10 +5533,10 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>84</v>
@@ -5502,15 +5549,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>101</v>
@@ -5522,10 +5569,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>88</v>
@@ -5541,21 +5588,17 @@
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
@@ -5577,10 +5620,10 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>84</v>
@@ -5589,7 +5632,9 @@
         <v>85</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
@@ -5615,10 +5660,10 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>84</v>
@@ -5627,9 +5672,7 @@
         <v>85</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
@@ -5655,10 +5698,10 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>84</v>
@@ -5674,9 +5717,30 @@
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
     </row>
+    <row r="18" ht="14.25" spans="2:10">
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
+    </row>
     <row r="19" ht="14.25" spans="12:20">
       <c r="L19" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -5687,18 +5751,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" ht="14.25" spans="2:20">
-      <c r="B20" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
+    <row r="20" ht="14.25" spans="12:20">
       <c r="L20" s="3" t="s">
         <v>73</v>
       </c>
@@ -5728,33 +5781,17 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:20">
-      <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
       <c r="L21" s="5" t="s">
         <v>82</v>
       </c>
@@ -5776,30 +5813,38 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" ht="14.25" spans="2:20">
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L22" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>84</v>
@@ -5817,10 +5862,10 @@
     </row>
     <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>84</v>
@@ -5828,18 +5873,18 @@
       <c r="E23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>84</v>
@@ -5859,10 +5904,10 @@
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>84</v>
@@ -5878,10 +5923,10 @@
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>101</v>
@@ -5895,17 +5940,21 @@
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
@@ -5931,21 +5980,17 @@
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
@@ -5971,10 +6016,10 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>84</v>
@@ -5983,17 +6028,19 @@
         <v>85</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>84</v>
@@ -6002,19 +6049,17 @@
         <v>85</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>84</v>
@@ -6030,75 +6075,75 @@
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="32" ht="14.25" spans="2:10">
-      <c r="B32" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="1"/>
+    <row r="30" ht="14.25" spans="2:10">
+      <c r="B30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="33" ht="14.25" spans="2:10">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="2:10">
+      <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" ht="14.25" spans="2:10">
-      <c r="B34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="5"/>
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>84</v>
@@ -6106,20 +6151,20 @@
       <c r="E35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="9"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>84</v>
@@ -6128,22 +6173,26 @@
         <v>85</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -6152,69 +6201,65 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>84</v>
@@ -6230,75 +6275,75 @@
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="44" ht="14.25" spans="2:10">
-      <c r="B44" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="1"/>
+    <row r="42" ht="14.25" spans="2:10">
+      <c r="B42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="45" ht="14.25" spans="2:10">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="2:10">
+      <c r="B46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" spans="2:10">
-      <c r="B46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="5"/>
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>84</v>
@@ -6306,37 +6351,41 @@
       <c r="E47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="F47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>88</v>
@@ -6350,31 +6399,27 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>84</v>
@@ -6389,6 +6434,27 @@
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
       <c r="J51" s="5"/>
+    </row>
+    <row r="52" ht="14.25" spans="2:10">
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6486,7 +6552,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6572,10 +6638,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>98</v>
@@ -6586,15 +6652,15 @@
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>98</v>
@@ -6608,10 +6674,10 @@
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>98</v>
@@ -6625,10 +6691,10 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>123</v>
@@ -6642,10 +6708,10 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>123</v>
@@ -6659,10 +6725,10 @@
     </row>
     <row r="15" ht="14.25" spans="2:10">
       <c r="B15" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>88</v>
@@ -6812,7 +6878,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6877,10 +6943,10 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>123</v>
@@ -6894,10 +6960,10 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>88</v>
@@ -6911,10 +6977,10 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>123</v>
@@ -6925,7 +6991,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
@@ -6989,7 +7055,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7052,10 +7118,10 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>88</v>
@@ -7071,13 +7137,13 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -7087,7 +7153,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
@@ -7151,7 +7217,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -7214,10 +7280,10 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>84</v>
@@ -7235,10 +7301,10 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>84</v>
@@ -7253,15 +7319,15 @@
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>84</v>
@@ -7279,13 +7345,13 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
@@ -7295,15 +7361,15 @@
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>88</v>
@@ -7317,10 +7383,10 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>88</v>
@@ -7334,10 +7400,10 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>88</v>
@@ -7351,10 +7417,10 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>88</v>
@@ -7368,10 +7434,10 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>88</v>
@@ -7385,13 +7451,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -7402,10 +7468,10 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>101</v>
@@ -7419,10 +7485,10 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>84</v>
@@ -7435,15 +7501,15 @@
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>84</v>
@@ -7501,7 +7567,7 @@
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -7564,10 +7630,10 @@
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>88</v>

--- a/docs/数据库设计.xlsx
+++ b/docs/数据库设计.xlsx
@@ -4,28 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="881" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="一览" sheetId="1" r:id="rId1"/>
-    <sheet name="用户模块" sheetId="2" r:id="rId2"/>
-    <sheet name="投稿模块" sheetId="3" r:id="rId3"/>
-    <sheet name="统计模块" sheetId="5" r:id="rId4"/>
-    <sheet name="管理员操作的模块" sheetId="4" r:id="rId5"/>
+    <sheet name="变更记录" sheetId="6" r:id="rId1"/>
+    <sheet name="一览" sheetId="1" r:id="rId2"/>
+    <sheet name="用户模块" sheetId="2" r:id="rId3"/>
+    <sheet name="投稿模块" sheetId="3" r:id="rId4"/>
+    <sheet name="统计模块" sheetId="5" r:id="rId5"/>
+    <sheet name="管理员操作的模块" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="366">
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>sheet名</t>
+  </si>
+  <si>
+    <t>数据库表名</t>
+  </si>
+  <si>
+    <t>修改内容</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
   <si>
     <t>数据库名：待定</t>
   </si>
   <si>
-    <t>sheet名</t>
-  </si>
-  <si>
     <t>表名(逻辑名)</t>
   </si>
   <si>
@@ -44,7 +60,16 @@
     <t>t_user</t>
   </si>
   <si>
-    <t>登录状态/日志</t>
+    <t>用户信息表</t>
+  </si>
+  <si>
+    <t>用户授权表</t>
+  </si>
+  <si>
+    <t>t_user_auth</t>
+  </si>
+  <si>
+    <t>用户登录授权表</t>
   </si>
   <si>
     <t>用户年龄认证图片表</t>
@@ -104,6 +129,18 @@
     <t>t_history</t>
   </si>
   <si>
+    <t>登录状态表</t>
+  </si>
+  <si>
+    <t>t_login_status</t>
+  </si>
+  <si>
+    <t>登录日志表</t>
+  </si>
+  <si>
+    <t>t_login_log</t>
+  </si>
+  <si>
     <t>管理员表</t>
   </si>
   <si>
@@ -191,6 +228,9 @@
     <t>t_device</t>
   </si>
   <si>
+    <t>登录设备信息表</t>
+  </si>
+  <si>
     <t>管理员操作的模块</t>
   </si>
   <si>
@@ -284,30 +324,33 @@
     <t>用户标识ID</t>
   </si>
   <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>图片URL</t>
+  </si>
+  <si>
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>图片URL</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -326,282 +369,375 @@
     <t>BOOLEAN</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>个人简介</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>头像URL</t>
+  </si>
+  <si>
+    <t>avatar_thumbnail</t>
+  </si>
+  <si>
+    <t>头像缩略图URL</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>封面URL</t>
+  </si>
+  <si>
+    <t>屏蔽用户表（t_user_block）</t>
+  </si>
+  <si>
+    <t>cover_thumbnail</t>
+  </si>
+  <si>
+    <t>封面缩略图URL</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>0：女，1：男</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>blocked_user_id</t>
+  </si>
+  <si>
+    <t>被屏蔽用户ID</t>
+  </si>
+  <si>
+    <t>用户表ID</t>
+  </si>
+  <si>
+    <t>is_phone_verified</t>
+  </si>
+  <si>
+    <t>是否已手机认证</t>
+  </si>
+  <si>
+    <t>is_block</t>
+  </si>
+  <si>
+    <t>是否屏蔽</t>
+  </si>
+  <si>
+    <t>is_age_verified</t>
+  </si>
+  <si>
+    <t>是否已年龄认证</t>
+  </si>
+  <si>
+    <t>is_vip</t>
+  </si>
+  <si>
+    <t>是否是vip</t>
+  </si>
+  <si>
+    <t>vip_start_at</t>
+  </si>
+  <si>
+    <t>vip开通时间</t>
+  </si>
+  <si>
+    <t>vip_end_at</t>
+  </si>
+  <si>
+    <t>vip到期时间</t>
+  </si>
+  <si>
+    <t>is_new_user</t>
+  </si>
+  <si>
+    <t>是否是新用户</t>
+  </si>
+  <si>
+    <t>主页访问历史表（t_history）</t>
+  </si>
+  <si>
+    <t>is_dangerous_user</t>
+  </si>
+  <si>
+    <t>是否是危险用户</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>备用(冻结账号等)</t>
+  </si>
+  <si>
+    <t>visitor_id</t>
+  </si>
+  <si>
+    <t>访问者ID</t>
+  </si>
+  <si>
+    <t>visited_id</t>
+  </si>
+  <si>
+    <t>被访问者ID</t>
+  </si>
+  <si>
+    <t>用户授权表（t_user_auth）</t>
+  </si>
+  <si>
+    <t>登录状态表（t_login_status）</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>登录类型</t>
+  </si>
+  <si>
+    <t>"phone","wechat","qq","weibo"</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>登录的用户名</t>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>登录的密码</t>
+  </si>
+  <si>
+    <t>is_online</t>
+  </si>
+  <si>
+    <t>用户是否在线</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>密码加密使用</t>
+  </si>
+  <si>
+    <t>online_status</t>
+  </si>
+  <si>
+    <t>在线状态</t>
+  </si>
+  <si>
+    <t>粉丝表（t_follower）</t>
+  </si>
+  <si>
+    <t>登录日志表（t_login_log）</t>
+  </si>
+  <si>
+    <t>follower_id</t>
+  </si>
+  <si>
+    <t>粉丝ID</t>
+  </si>
+  <si>
+    <t>user_auth_id</t>
+  </si>
+  <si>
+    <t>用户授权ID</t>
+  </si>
+  <si>
+    <t>is_follow</t>
+  </si>
+  <si>
+    <t>是否关注</t>
+  </si>
+  <si>
+    <t>login_ip</t>
+  </si>
+  <si>
+    <t>登录ip</t>
+  </si>
+  <si>
+    <t>login_address</t>
+  </si>
+  <si>
+    <t>登录地址</t>
+  </si>
+  <si>
+    <t>login_at</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>login_device_model</t>
+  </si>
+  <si>
+    <t>登录设备型号</t>
+  </si>
+  <si>
+    <t>用户创建的组的表（t_group）</t>
+  </si>
+  <si>
+    <t>※用户创建的组</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>创建人ID</t>
+  </si>
+  <si>
+    <t>group_category_id</t>
+  </si>
+  <si>
+    <t>组分类ID</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>组的标题</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>组的描述</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>is_need_agree</t>
+  </si>
+  <si>
+    <t>用户加入是否需要审核</t>
+  </si>
+  <si>
+    <t>is_calling_top</t>
+  </si>
+  <si>
+    <t>是否通话置顶</t>
+  </si>
+  <si>
+    <t>is_only_age_verfy</t>
+  </si>
+  <si>
+    <t>是否仅允许年龄认证的用户加入</t>
+  </si>
+  <si>
+    <t>is_only_same_gender</t>
+  </si>
+  <si>
+    <t>是否和创建者同性别的人加入</t>
+  </si>
+  <si>
+    <t>用户参加的组的表（t_join_group）</t>
+  </si>
+  <si>
+    <t>※用户参加的组</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>组ID</t>
+  </si>
+  <si>
+    <t>is_join</t>
+  </si>
+  <si>
+    <t>是否加入</t>
+  </si>
+  <si>
+    <t>留言表（t_message）</t>
+  </si>
+  <si>
+    <t>messenger_id</t>
+  </si>
+  <si>
+    <t>留言人ID</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>留言内容</t>
+  </si>
+  <si>
+    <t>管理员表（t_admin）</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>密码</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>biography</t>
-  </si>
-  <si>
-    <t>个人简介</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>头像URL</t>
-  </si>
-  <si>
-    <t>avatar_thumbnail</t>
-  </si>
-  <si>
-    <t>头像缩略图URL</t>
-  </si>
-  <si>
-    <t>屏蔽用户表（t_user_block）</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>封面URL</t>
-  </si>
-  <si>
-    <t>cover_thumbnail</t>
-  </si>
-  <si>
-    <t>封面缩略图URL</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>0：女，1：男</t>
-  </si>
-  <si>
-    <t>blocked_user_id</t>
-  </si>
-  <si>
-    <t>被屏蔽用户ID</t>
-  </si>
-  <si>
-    <t>用户表ID</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>is_blocked</t>
-  </si>
-  <si>
-    <t>是否屏蔽</t>
-  </si>
-  <si>
-    <t>is_age_verified</t>
-  </si>
-  <si>
-    <t>是否已年龄认证</t>
-  </si>
-  <si>
-    <t>is_vip</t>
-  </si>
-  <si>
-    <t>是否是vip</t>
-  </si>
-  <si>
-    <t>vip_start_at</t>
-  </si>
-  <si>
-    <t>vip开通时间</t>
-  </si>
-  <si>
-    <t>vip_end_at</t>
-  </si>
-  <si>
-    <t>vip结束时间</t>
-  </si>
-  <si>
-    <t>is_new_user</t>
-  </si>
-  <si>
-    <t>是否是新用户</t>
-  </si>
-  <si>
-    <t>主页访问历史表（t_history）</t>
-  </si>
-  <si>
-    <t>is_dangerous_user</t>
-  </si>
-  <si>
-    <t>是否是危险用户</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>密码加密使用</t>
-  </si>
-  <si>
-    <t>visitor_id</t>
-  </si>
-  <si>
-    <t>访问者ID</t>
-  </si>
-  <si>
-    <t>visited_id</t>
-  </si>
-  <si>
-    <t>被访问者ID</t>
-  </si>
-  <si>
-    <t>粉丝表（t_follower）</t>
-  </si>
-  <si>
-    <t>follower_id</t>
-  </si>
-  <si>
-    <t>粉丝ID</t>
-  </si>
-  <si>
-    <t>is_follow</t>
-  </si>
-  <si>
-    <t>是否关注</t>
-  </si>
-  <si>
-    <t>用户创建的组的表（t_group）</t>
-  </si>
-  <si>
-    <t>※用户创建的组</t>
-  </si>
-  <si>
-    <t>creator_id</t>
-  </si>
-  <si>
-    <t>创建人ID</t>
-  </si>
-  <si>
-    <t>group_category_id</t>
-  </si>
-  <si>
-    <t>组分类ID</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>组的标题</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>组的描述</t>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-  </si>
-  <si>
-    <t>is_need_agree</t>
-  </si>
-  <si>
-    <t>用户加入是否需要审核</t>
-  </si>
-  <si>
-    <t>is_calling_top</t>
-  </si>
-  <si>
-    <t>是否通话置顶</t>
-  </si>
-  <si>
-    <t>is_only_age_verfy</t>
-  </si>
-  <si>
-    <t>是否仅允许年龄认证的用户加入</t>
-  </si>
-  <si>
-    <t>is_only_same_gender</t>
-  </si>
-  <si>
-    <t>是否和创建者同性别的人加入</t>
-  </si>
-  <si>
-    <t>用户参加的组的表（t_join_group）</t>
-  </si>
-  <si>
-    <t>※用户参加的组</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>组ID</t>
-  </si>
-  <si>
-    <t>is_join</t>
-  </si>
-  <si>
-    <t>是否加入</t>
-  </si>
-  <si>
-    <t>留言表（t_message）</t>
-  </si>
-  <si>
-    <t>messenger_id</t>
-  </si>
-  <si>
-    <t>留言人ID</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>留言内容</t>
-  </si>
-  <si>
-    <t>管理员表（t_admin）</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
     <t>real_name</t>
   </si>
   <si>
     <t>真实姓名</t>
   </si>
   <si>
+    <t>VARCHAR(16)</t>
+  </si>
+  <si>
     <t>id_number</t>
   </si>
   <si>
@@ -620,6 +756,9 @@
     <t>角色名称</t>
   </si>
   <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
     <t>ename</t>
   </si>
   <si>
@@ -686,9 +825,6 @@
     <t>投稿ID</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>房间类型</t>
   </si>
   <si>
@@ -707,6 +843,9 @@
     <t>最大参与者</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>parent_id</t>
   </si>
   <si>
@@ -722,7 +861,7 @@
     <t>是否正在进行中</t>
   </si>
   <si>
-    <t>text</t>
+    <t>content</t>
   </si>
   <si>
     <t>评论内容</t>
@@ -752,18 +891,21 @@
     <t>通话房间-用户关联表（t_calling_user）</t>
   </si>
   <si>
-    <t>liker_id</t>
+    <t>comment_id</t>
+  </si>
+  <si>
+    <t>评论ID</t>
+  </si>
+  <si>
+    <t>calling_room_id</t>
+  </si>
+  <si>
+    <t>房间ID</t>
   </si>
   <si>
     <t>点赞人ID</t>
   </si>
   <si>
-    <t>calling_room_id</t>
-  </si>
-  <si>
-    <t>房间ID</t>
-  </si>
-  <si>
     <t>is_like</t>
   </si>
   <si>
@@ -881,9 +1023,6 @@
     <t>违禁词</t>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
     <t>适用场景："general","group","user"</t>
   </si>
   <si>
@@ -911,6 +1050,9 @@
     <t>举报理由ID</t>
   </si>
   <si>
+    <t>举报类型</t>
+  </si>
+  <si>
     <t>CHAR(16)</t>
   </si>
   <si>
@@ -972,9 +1114,6 @@
   </si>
   <si>
     <t>举报理由表（t_report_reason）</t>
-  </si>
-  <si>
-    <t>content</t>
   </si>
   <si>
     <t>内容</t>
@@ -1017,37 +1156,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,17 +1180,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,7 +1203,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,30 +1278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1132,22 +1286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,7 +1300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,7 +1345,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,13 +1393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,25 +1417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,13 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1447,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,67 +1525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,15 +1591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1464,17 +1606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,7 +1634,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,10 +1696,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,137 +1708,137 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,10 +1890,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1750,6 +1904,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2099,13 +2283,162 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="46" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9" style="23"/>
+    <col min="7" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="22" customFormat="1" spans="1:6">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" s="22" customFormat="1" ht="17" customHeight="1" spans="1:6">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" s="22" customFormat="1" spans="1:6">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="1:6">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" s="22" customFormat="1" spans="1:6">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" s="22" customFormat="1" spans="1:6">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" s="22" customFormat="1" spans="1:6">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" s="22" customFormat="1" spans="1:6">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" s="22" customFormat="1" spans="1:6">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" s="22" customFormat="1" spans="1:6">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="26"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F65536"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -2116,7 +2449,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
@@ -2124,397 +2457,412 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16"/>
       <c r="B5" s="15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17"/>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>28</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>30</v>
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>32</v>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>36</v>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>39</v>
+      <c r="A17" s="17"/>
+      <c r="B17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>41</v>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>45</v>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="20"/>
-      <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>46</v>
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="B21" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="A24" s="21"/>
       <c r="B24" s="15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="A33" s="20"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="B34" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="19"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2543,12 +2891,30 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
     </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2556,13 +2922,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2574,36 +2940,36 @@
     <col min="5" max="5" width="3.25" style="1" customWidth="1"/>
     <col min="6" max="8" width="3.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
+    <col min="10" max="10" width="32.2" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
     <col min="15" max="17" width="3.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.2" style="1" customWidth="1"/>
     <col min="21" max="16375" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="9:9">
@@ -2611,103 +2977,103 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2716,39 +3082,39 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R9" s="7"/>
       <c r="S9" s="9"/>
@@ -2756,13 +3122,13 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -2771,30 +3137,32 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -2803,13 +3171,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
@@ -2820,35 +3188,37 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
@@ -2856,37 +3226,35 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
@@ -2894,13 +3262,13 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -2911,13 +3279,13 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="2:12">
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -2929,13 +3297,13 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="2:19">
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -2944,19 +3312,25 @@
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:20">
       <c r="B17" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -2965,42 +3339,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
@@ -3009,19 +3383,19 @@
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -3030,81 +3404,89 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="L19" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="9"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="J20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R20" s="7"/>
       <c r="S20" s="9"/>
       <c r="T20" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -3113,13 +3495,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
@@ -3130,13 +3512,13 @@
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="5" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -3145,20 +3527,20 @@
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
@@ -3166,13 +3548,13 @@
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
@@ -3181,20 +3563,20 @@
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
@@ -3202,16 +3584,16 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -3221,16 +3603,16 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -3240,13 +3622,13 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="5" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -3255,19 +3637,19 @@
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
@@ -3276,42 +3658,42 @@
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="L27" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
@@ -3319,22 +3701,22 @@
       <c r="H28" s="7"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3343,13 +3725,13 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
@@ -3358,97 +3740,97 @@
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="9"/>
       <c r="T29" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="9"/>
       <c r="T30" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
@@ -3459,20 +3841,20 @@
     </row>
     <row r="32" spans="12:20">
       <c r="L32" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="9"/>
@@ -3480,20 +3862,20 @@
     </row>
     <row r="33" spans="12:20">
       <c r="L33" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="9"/>
@@ -3501,326 +3883,563 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="L36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="2:20">
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="L37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="9"/>
       <c r="J38" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+        <v>174</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="5" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="L39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="5" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="L40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="5" t="s">
+      <c r="J41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="B47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
       <c r="B49" s="5" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="L49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50" s="5" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="L50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R50" s="7"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="J51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="2:20">
       <c r="B52" s="5" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
@@ -3828,187 +4447,318 @@
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="L52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20">
       <c r="B53" s="5" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="L53" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="2:20">
       <c r="B54" s="5" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="9"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="12:20">
+      <c r="L55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="12:20">
+      <c r="L56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="9"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>180</v>
-      </c>
+    <row r="60" spans="2:10">
+      <c r="B60" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B63" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="5" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
@@ -4016,55 +4766,47 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="5" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
@@ -4075,157 +4817,150 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="5" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="9"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="5" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="9"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="5" t="s">
+    <row r="70" spans="2:10">
+      <c r="B70" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="5" t="s">
-        <v>130</v>
+      <c r="G76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="5" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
@@ -4233,37 +4968,41 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H78" s="7"/>
       <c r="I78" s="9"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="5" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="9"/>
@@ -4271,189 +5010,212 @@
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="5" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="9"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>81</v>
+    <row r="81" spans="2:10">
+      <c r="B81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="5"/>
+      <c r="B86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H88" s="7"/>
       <c r="I88" s="9"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="5" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="5" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="5" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="9"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="5" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="9"/>
@@ -4461,132 +5223,111 @@
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="5" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H93" s="7"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="5" t="s">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="5"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="C100" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="5" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="9"/>
@@ -4594,18 +5335,18 @@
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="5" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="9"/>
@@ -4613,398 +5354,398 @@
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="5" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="5"/>
+      <c r="J103" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="5" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="G104" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H104" s="7"/>
       <c r="I104" s="9"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="5" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H105" s="7"/>
       <c r="I105" s="9"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="5" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E106" s="6"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="5"/>
+      <c r="J106" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E107" s="6"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="9"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="5"/>
+    <row r="108" spans="2:10">
+      <c r="B108" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="113" spans="2:10">
-      <c r="B113" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="5"/>
+      <c r="B113" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="5" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="9"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="5" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H115" s="7"/>
       <c r="I115" s="9"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="5" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H116" s="7"/>
       <c r="I116" s="9"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="5" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E117" s="6"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="9"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="9"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="5"/>
+    <row r="119" spans="2:10">
+      <c r="B119" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="5"/>
+      <c r="B124" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="5" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="9"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="5" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H126" s="7"/>
       <c r="I126" s="9"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="5" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E127" s="6"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="9"/>
@@ -5012,134 +5753,130 @@
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="5" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="9"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H134" s="7"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="5"/>
+    <row r="129" spans="2:10">
+      <c r="B129" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="5"/>
+      <c r="B135" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="9"/>
@@ -5147,20 +5884,20 @@
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="5" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="9"/>
@@ -5168,24 +5905,239 @@
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="5" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F138" s="7"/>
       <c r="G138" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="9"/>
       <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" s="7"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H147" s="7"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H148" s="7"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H150" s="7"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5194,13 +6146,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5212,7 +6164,7 @@
     <col min="10" max="10" width="30.5" customWidth="1"/>
     <col min="12" max="12" width="15.875" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="14.4" customWidth="1"/>
     <col min="15" max="17" width="3.375" customWidth="1"/>
     <col min="18" max="18" width="3.5" customWidth="1"/>
     <col min="20" max="20" width="21.5" customWidth="1"/>
@@ -5220,7 +6172,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5234,7 +6186,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5248,7 +6200,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5262,7 +6214,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5289,7 +6241,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5303,34 +6255,34 @@
     <row r="7" ht="14.25" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -5344,88 +6296,88 @@
     <row r="8" ht="14.25" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="L8" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:20">
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -5434,13 +6386,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:20">
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -5449,20 +6401,20 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="9"/>
@@ -5470,60 +6422,58 @@
     </row>
     <row r="11" ht="14.25" spans="2:20">
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="9"/>
       <c r="T11" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5533,34 +6483,34 @@
       </c>
       <c r="J12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="9"/>
       <c r="T12" s="5" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:20">
       <c r="B13" s="5" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -5569,32 +6519,30 @@
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="2:20">
       <c r="B14" s="5" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -5603,13 +6551,13 @@
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
@@ -5620,39 +6568,39 @@
     </row>
     <row r="15" ht="14.25" spans="2:20">
       <c r="B15" s="5" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="9"/>
@@ -5660,16 +6608,16 @@
     </row>
     <row r="16" ht="14.25" spans="2:20">
       <c r="B16" s="5" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -5677,20 +6625,20 @@
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="9"/>
@@ -5698,20 +6646,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -5719,20 +6667,20 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
@@ -5740,7 +6688,7 @@
     </row>
     <row r="19" ht="14.25" spans="12:20">
       <c r="L19" s="2" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -5753,36 +6701,36 @@
     </row>
     <row r="20" ht="14.25" spans="12:20">
       <c r="L20" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:20">
       <c r="B21" s="2" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5793,19 +6741,19 @@
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
       <c r="L21" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -5814,179 +6762,173 @@
     </row>
     <row r="22" ht="14.25" spans="2:20">
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" ht="14.25" spans="2:20">
       <c r="B23" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="L23" s="5" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" ht="14.25" spans="2:20">
       <c r="B24" s="5" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="L24" s="5" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R24" s="7"/>
       <c r="S24" s="9"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" ht="14.25" spans="2:20">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="9"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" ht="14.25" spans="2:20">
       <c r="B26" s="5" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -5995,58 +6937,77 @@
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="9"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" ht="14.25" spans="2:10">
+    <row r="27" ht="14.25" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="5" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -6056,20 +7017,20 @@
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
@@ -6077,20 +7038,20 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
@@ -6098,7 +7059,7 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="2" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6111,48 +7072,48 @@
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -6161,20 +7122,20 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="9"/>
@@ -6182,16 +7143,16 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -6201,13 +7162,13 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
@@ -6218,34 +7179,34 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -6256,20 +7217,20 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
@@ -6277,20 +7238,20 @@
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
@@ -6298,7 +7259,7 @@
     </row>
     <row r="45" ht="14.25" spans="2:10">
       <c r="B45" s="2" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6311,48 +7272,48 @@
     </row>
     <row r="46" ht="14.25" spans="2:10">
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="2:10">
       <c r="B47" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -6361,20 +7322,20 @@
     </row>
     <row r="48" ht="14.25" spans="2:10">
       <c r="B48" s="5" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="9"/>
@@ -6382,54 +7343,58 @@
     </row>
     <row r="49" ht="14.25" spans="2:10">
       <c r="B49" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -6437,20 +7402,20 @@
     </row>
     <row r="52" ht="14.25" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
@@ -6462,13 +7427,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6483,7 +7448,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6497,7 +7462,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6511,7 +7476,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6525,7 +7490,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6552,7 +7517,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6566,49 +7531,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6617,20 +7582,20 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
@@ -6638,13 +7603,13 @@
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -6652,18 +7617,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -6674,13 +7639,13 @@
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -6691,13 +7656,13 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
@@ -6708,13 +7673,13 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
@@ -6725,13 +7690,13 @@
     </row>
     <row r="15" ht="14.25" spans="2:10">
       <c r="B15" s="5" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
@@ -6742,20 +7707,20 @@
     </row>
     <row r="16" ht="14.25" spans="2:10">
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -6763,20 +7728,20 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -6788,13 +7753,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6809,7 +7774,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6823,7 +7788,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6837,7 +7802,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6851,7 +7816,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6878,7 +7843,7 @@
     <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6892,49 +7857,49 @@
     <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6943,30 +7908,32 @@
     </row>
     <row r="9" ht="14.25" spans="2:10">
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="2:10">
       <c r="B10" s="5" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
@@ -6977,13 +7944,13 @@
     </row>
     <row r="11" ht="14.25" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -6991,18 +7958,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
@@ -7013,20 +7980,20 @@
     </row>
     <row r="13" ht="14.25" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
@@ -7034,20 +8001,20 @@
     </row>
     <row r="14" ht="14.25" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -7055,7 +8022,7 @@
     </row>
     <row r="17" ht="14.25" spans="2:10">
       <c r="B17" s="2" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7068,48 +8035,48 @@
     </row>
     <row r="18" ht="14.25" spans="2:10">
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:10">
       <c r="B19" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -7118,18 +8085,18 @@
     </row>
     <row r="20" ht="14.25" spans="2:10">
       <c r="B20" s="5" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
@@ -7137,34 +8104,34 @@
     </row>
     <row r="21" ht="14.25" spans="2:10">
       <c r="B21" s="5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -7175,20 +8142,20 @@
     </row>
     <row r="23" ht="14.25" spans="2:10">
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="9"/>
@@ -7196,20 +8163,20 @@
     </row>
     <row r="24" ht="14.25" spans="2:10">
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -7217,7 +8184,7 @@
     </row>
     <row r="27" ht="14.25" spans="2:10">
       <c r="B27" s="2" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -7230,48 +8197,48 @@
     </row>
     <row r="28" ht="14.25" spans="2:10">
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:10">
       <c r="B29" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -7280,20 +8247,20 @@
     </row>
     <row r="30" ht="14.25" spans="2:10">
       <c r="B30" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
@@ -7301,43 +8268,43 @@
     </row>
     <row r="31" ht="14.25" spans="2:10">
       <c r="B31" s="5" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:10">
       <c r="B32" s="5" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
@@ -7345,34 +8312,34 @@
     </row>
     <row r="33" ht="14.25" spans="2:10">
       <c r="B33" s="5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:10">
       <c r="B34" s="5" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
@@ -7383,13 +8350,13 @@
     </row>
     <row r="35" ht="14.25" spans="2:10">
       <c r="B35" s="5" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
@@ -7400,13 +8367,13 @@
     </row>
     <row r="36" ht="14.25" spans="2:10">
       <c r="B36" s="5" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
@@ -7417,13 +8384,13 @@
     </row>
     <row r="37" ht="14.25" spans="2:10">
       <c r="B37" s="5" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
@@ -7434,13 +8401,13 @@
     </row>
     <row r="38" ht="14.25" spans="2:10">
       <c r="B38" s="5" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
@@ -7451,13 +8418,13 @@
     </row>
     <row r="39" ht="14.25" spans="2:10">
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -7468,13 +8435,13 @@
     </row>
     <row r="40" ht="14.25" spans="2:10">
       <c r="B40" s="5" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
@@ -7485,37 +8452,37 @@
     </row>
     <row r="41" ht="14.25" spans="2:10">
       <c r="B41" s="5" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:10">
       <c r="B42" s="5" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -7525,121 +8492,121 @@
     </row>
     <row r="43" ht="14.25" spans="2:10">
       <c r="B43" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" ht="14.25" spans="2:10">
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="9"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="47" ht="14.25" spans="2:10">
-      <c r="B47" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="1"/>
+    <row r="45" ht="14.25" spans="2:10">
+      <c r="B45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="48" ht="14.25" spans="2:10">
-      <c r="B48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B48" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" ht="14.25" spans="2:10">
-      <c r="B49" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="5"/>
+      <c r="B49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" ht="14.25" spans="2:10">
       <c r="B50" s="5" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -7647,13 +8614,13 @@
     </row>
     <row r="51" ht="14.25" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
@@ -7664,45 +8631,62 @@
     </row>
     <row r="52" ht="14.25" spans="2:10">
       <c r="B52" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" ht="14.25" spans="2:10">
       <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
       <c r="J53" s="5"/>
+    </row>
+    <row r="54" ht="14.25" spans="2:10">
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
